--- a/Crawling/crawling_data/day_genie/day_genie_20220131.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220131.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
   <si>
     <t>날짜</t>
   </si>
@@ -70,8 +70,7 @@
     <t>Step Back</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>겨울잠</t>
@@ -224,8 +223,7 @@
     <t>Off My Face</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>Blueming</t>
@@ -556,9 +554,6 @@
   </si>
   <si>
     <t>눈이 오잖아</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>조각집</t>
@@ -1313,7 +1308,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1330,7 +1325,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1398,7 +1393,7 @@
         <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1432,7 +1427,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1466,7 +1461,7 @@
         <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1500,7 +1495,7 @@
         <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1517,7 +1512,7 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1534,7 +1529,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1586,7 +1581,7 @@
         <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1603,7 +1598,7 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1620,7 +1615,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1637,7 +1632,7 @@
         <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1654,7 +1649,7 @@
         <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1671,7 +1666,7 @@
         <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1705,7 +1700,7 @@
         <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1756,7 +1751,7 @@
         <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1773,7 +1768,7 @@
         <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1790,7 +1785,7 @@
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1807,7 +1802,7 @@
         <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1841,7 +1836,7 @@
         <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1858,7 +1853,7 @@
         <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1892,7 +1887,7 @@
         <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1909,7 +1904,7 @@
         <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1926,7 +1921,7 @@
         <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1943,7 +1938,7 @@
         <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1960,7 +1955,7 @@
         <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1977,7 +1972,7 @@
         <v>142</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1994,7 +1989,7 @@
         <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2011,7 +2006,7 @@
         <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2028,7 +2023,7 @@
         <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2045,7 +2040,7 @@
         <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2062,7 +2057,7 @@
         <v>138</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2113,7 +2108,7 @@
         <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2147,7 +2142,7 @@
         <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2164,7 +2159,7 @@
         <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2181,7 +2176,7 @@
         <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2198,7 +2193,7 @@
         <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2215,7 +2210,7 @@
         <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2249,7 +2244,7 @@
         <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2266,7 +2261,7 @@
         <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2283,7 +2278,7 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2300,7 +2295,7 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2317,7 +2312,7 @@
         <v>155</v>
       </c>
       <c r="E73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2351,7 +2346,7 @@
         <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2368,7 +2363,7 @@
         <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2385,7 +2380,7 @@
         <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2419,7 +2414,7 @@
         <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2470,7 +2465,7 @@
         <v>162</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2521,7 +2516,7 @@
         <v>117</v>
       </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2538,7 +2533,7 @@
         <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2555,7 +2550,7 @@
         <v>165</v>
       </c>
       <c r="E87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2589,7 +2584,7 @@
         <v>167</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2606,7 +2601,7 @@
         <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2640,7 +2635,7 @@
         <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2657,7 +2652,7 @@
         <v>169</v>
       </c>
       <c r="E93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2708,7 +2703,7 @@
         <v>109</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2759,7 +2754,7 @@
         <v>109</v>
       </c>
       <c r="E99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2793,7 +2788,7 @@
         <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
